--- a/data/trans_dic/P74B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03852686763503415</v>
+        <v>0.03817049870748503</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1823419344352636</v>
+        <v>0.1900379376696272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1128038424244371</v>
+        <v>0.1081866163902922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8090184662233079</v>
+        <v>0.802990461680486</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5471405706077657</v>
+        <v>0.5615755668826705</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3469779908183785</v>
+        <v>0.3524935467022645</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2335458512327741</v>
+        <v>0.2381750879652846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3753484558135043</v>
+        <v>0.3670501473636986</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2277747240262152</v>
+        <v>0.2204562722768595</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1460091305331886</v>
+        <v>0.1568444988598637</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3880378350058826</v>
+        <v>0.4065834534548629</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2610660986012955</v>
+        <v>0.26173732439637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9762959986507368</v>
+        <v>0.9761992608291267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7967315830163856</v>
+        <v>0.8065522615356501</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6009463726923091</v>
+        <v>0.623746413821017</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3956988929328737</v>
+        <v>0.3898592130252769</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5508815770633211</v>
+        <v>0.5414556013255969</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3794785318442725</v>
+        <v>0.3697479071235778</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02612816049758024</v>
+        <v>0.02392796839105117</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05046088525071556</v>
+        <v>0.04908886987785635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03278238150557384</v>
+        <v>0.03541596276966973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6917788159769328</v>
+        <v>0.6836022524568232</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5995494217434892</v>
+        <v>0.606303843084827</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5670280607939209</v>
+        <v>0.5674528231377656</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2068068692673008</v>
+        <v>0.2064207306261037</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2696985684900376</v>
+        <v>0.2720643932395982</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2367259073299664</v>
+        <v>0.2411751563261183</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08924561689303173</v>
+        <v>0.08874460075945</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1406041046399291</v>
+        <v>0.1346712295736766</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09435279741505068</v>
+        <v>0.09483468963807318</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8571011920391334</v>
+        <v>0.8594994883722734</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7559265267696179</v>
+        <v>0.7666262131550564</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7163730631368498</v>
+        <v>0.7208165296118414</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3066071300823514</v>
+        <v>0.3032300391232566</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3735503611819686</v>
+        <v>0.3742849134111578</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3289197798729458</v>
+        <v>0.3343925190745612</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01377939655259353</v>
+        <v>0.01297689213499699</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05081337793416595</v>
+        <v>0.05710379875803775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07478071147454309</v>
+        <v>0.07964646927362912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7341546026603649</v>
+        <v>0.7436827390992541</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5625363558575842</v>
+        <v>0.5668983036194765</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5228173462698006</v>
+        <v>0.5197146850222893</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2050792037317134</v>
+        <v>0.2062567841051849</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2280344590504491</v>
+        <v>0.2301030555341874</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2440847110307522</v>
+        <v>0.2487902828074729</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08693143094607889</v>
+        <v>0.07579802733803515</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1502886048490857</v>
+        <v>0.1605325199847424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1891490439905524</v>
+        <v>0.1924218151844916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9193079328310734</v>
+        <v>0.9305059204951293</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7952621114619707</v>
+        <v>0.8023815614320474</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7359129885729743</v>
+        <v>0.7352038043437531</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3285775116505542</v>
+        <v>0.330644563014971</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3593348709670922</v>
+        <v>0.3625075275174194</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3725264236082691</v>
+        <v>0.3748887778806065</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09172677344282511</v>
+        <v>0.0896747841122382</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1358133447457777</v>
+        <v>0.1417664055017876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1204001667935078</v>
+        <v>0.113641713741661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7369083572257069</v>
+        <v>0.7374179397229734</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6943328110779019</v>
+        <v>0.6866096851989654</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6112385075855281</v>
+        <v>0.6059273479304785</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2958345319405246</v>
+        <v>0.305069409811735</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3775480754347127</v>
+        <v>0.384409133197614</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3428588814262363</v>
+        <v>0.3461810778423331</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1993258761845091</v>
+        <v>0.1957106992911179</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.283918973186589</v>
+        <v>0.2919060985466105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2354308513064829</v>
+        <v>0.2363493976396838</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.909231505415099</v>
+        <v>0.9075775639226191</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8558149664989871</v>
+        <v>0.8583020394165478</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7880242108237739</v>
+        <v>0.7870551649320713</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4205831633388308</v>
+        <v>0.4331829555619663</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5182962181944651</v>
+        <v>0.5162861531344908</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4654559420827759</v>
+        <v>0.4646796065732391</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05817924543547863</v>
+        <v>0.0583898532493491</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09128210432478161</v>
+        <v>0.08469833969585111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1560184964589406</v>
+        <v>0.1612532965108276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6940319456339838</v>
+        <v>0.6946226379358881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5418563793647772</v>
+        <v>0.5572702115881933</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4921506273634194</v>
+        <v>0.486760267437957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.311591932399073</v>
+        <v>0.2996800579481516</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3066017247584981</v>
+        <v>0.3057045928981952</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3274662527056253</v>
+        <v>0.3282425132311579</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2222815505397378</v>
+        <v>0.221533453574747</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2755529025917938</v>
+        <v>0.2745125716531647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3169437831683771</v>
+        <v>0.3276078062167413</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.932376944395497</v>
+        <v>0.9373006472309231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7750964133217118</v>
+        <v>0.7887471615977543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7142511834059957</v>
+        <v>0.7179577343935112</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4794761262356689</v>
+        <v>0.4724936541360253</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4709655108967097</v>
+        <v>0.4684011787078822</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4703364297648771</v>
+        <v>0.4721754068522028</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007052102018571809</v>
+        <v>0.007232191578724017</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04877416842175175</v>
+        <v>0.04987902827917787</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01087024834525267</v>
+        <v>0.01047247162986779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7113184572644765</v>
+        <v>0.7208442875384591</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4733499645915595</v>
+        <v>0.4742227447420073</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5915836521626182</v>
+        <v>0.5905398103515808</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2129041944335985</v>
+        <v>0.2184290511531642</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.237776715351952</v>
+        <v>0.2427044925270282</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2597838631789543</v>
+        <v>0.2610443320454504</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06514601265809436</v>
+        <v>0.06612586894669104</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1540516070634028</v>
+        <v>0.1590037939040278</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1054415801424756</v>
+        <v>0.1047933389172396</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.915813110905536</v>
+        <v>0.91631312950546</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6898571792005276</v>
+        <v>0.6829588447390289</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8132451111925955</v>
+        <v>0.8212048504851427</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3363613045859765</v>
+        <v>0.3441184828765551</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3641604636298156</v>
+        <v>0.3726321411747116</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.412770760093075</v>
+        <v>0.4099710370645368</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05470890889566701</v>
+        <v>0.05347495434159589</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08810919808844872</v>
+        <v>0.09163678773382068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06070077364918382</v>
+        <v>0.063227895670455</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7247401877736236</v>
+        <v>0.7212345859997557</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5890837136573815</v>
+        <v>0.5869045523290966</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5904725335046946</v>
+        <v>0.5890735322415601</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2637178284524304</v>
+        <v>0.2599721706769874</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3030646619347142</v>
+        <v>0.303809235474818</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2714794924501543</v>
+        <v>0.2677659516484784</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.124475925111804</v>
+        <v>0.1256043512053055</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1777119152187933</v>
+        <v>0.1800465311202837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1480125141818502</v>
+        <v>0.1503007373806266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8708947067176466</v>
+        <v>0.8776125599757175</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7358729479923878</v>
+        <v>0.7352211284139364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7548888108928292</v>
+        <v>0.7549215799530244</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3630242656692154</v>
+        <v>0.3535772764202936</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3971590069041319</v>
+        <v>0.396859979385342</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3699165242256601</v>
+        <v>0.3709723632639292</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.057528279655177</v>
+        <v>0.05706549868330755</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06022101224173463</v>
+        <v>0.06281803345333679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1139170854756469</v>
+        <v>0.1122559670110966</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7608350030666001</v>
+        <v>0.7643353553702769</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.606107050011973</v>
+        <v>0.614162415397886</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6513959699393821</v>
+        <v>0.6410495339856571</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2670413639933842</v>
+        <v>0.2681585484216649</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2816694639667577</v>
+        <v>0.2789653427063752</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.33138287939883</v>
+        <v>0.3245082879964611</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1219856805250043</v>
+        <v>0.1236805299416147</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.126228529137405</v>
+        <v>0.1273940877844559</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1941216552633169</v>
+        <v>0.1976611124572428</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8893705588401213</v>
+        <v>0.8991184814293901</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7436848443042988</v>
+        <v>0.7531638153033565</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7884467216102655</v>
+        <v>0.7845830974902492</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3556918991091362</v>
+        <v>0.3581359062095449</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3656188992088533</v>
+        <v>0.3670270847618995</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4194148864344482</v>
+        <v>0.4172362828159298</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1066559123807741</v>
+        <v>0.107128787411487</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6263506872068259</v>
+        <v>0.6306628538798604</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3251112399089577</v>
+        <v>0.3282016809123373</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3187584847664577</v>
+        <v>0.3166847251738127</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1429080253099005</v>
+        <v>0.1423982180745963</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.693948504842934</v>
+        <v>0.6925074930843803</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3667554435963214</v>
+        <v>0.3682892510355006</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.359091839875714</v>
+        <v>0.3584711424427872</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3734</v>
+        <v>3699</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16488</v>
+        <v>17184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11401</v>
+        <v>10934</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29135</v>
+        <v>28918</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>36472</v>
+        <v>37435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23318</v>
+        <v>23689</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31046</v>
+        <v>31661</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>58961</v>
+        <v>57658</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>38328</v>
+        <v>37096</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14151</v>
+        <v>15201</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35088</v>
+        <v>36765</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26385</v>
+        <v>26452</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35159</v>
+        <v>35156</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>53110</v>
+        <v>53765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40386</v>
+        <v>41918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52601</v>
+        <v>51825</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>86535</v>
+        <v>85054</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63855</v>
+        <v>62217</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6214</v>
+        <v>5691</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11296</v>
+        <v>10989</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8368</v>
+        <v>9040</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>63267</v>
+        <v>62520</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>87267</v>
+        <v>88251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>90609</v>
+        <v>90677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>68099</v>
+        <v>67972</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>99629</v>
+        <v>100503</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98254</v>
+        <v>100100</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21225</v>
+        <v>21106</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31475</v>
+        <v>30147</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24084</v>
+        <v>24207</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>78387</v>
+        <v>78606</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>110029</v>
+        <v>111586</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>114474</v>
+        <v>115184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100962</v>
+        <v>99850</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>137993</v>
+        <v>138264</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>136519</v>
+        <v>138790</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2007</v>
+        <v>1890</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7095</v>
+        <v>7973</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10374</v>
+        <v>11049</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>41953</v>
+        <v>42498</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38493</v>
+        <v>38791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40169</v>
+        <v>39930</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41589</v>
+        <v>41828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47443</v>
+        <v>47873</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>52616</v>
+        <v>53630</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12662</v>
+        <v>11040</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20984</v>
+        <v>22414</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26241</v>
+        <v>26695</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52534</v>
+        <v>53174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54417</v>
+        <v>54905</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56541</v>
+        <v>56486</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66634</v>
+        <v>67053</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>74760</v>
+        <v>75420</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>80303</v>
+        <v>80812</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13465</v>
+        <v>13164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17990</v>
+        <v>18779</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18868</v>
+        <v>17809</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51483</v>
+        <v>51519</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65832</v>
+        <v>65100</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>75828</v>
+        <v>75169</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>64096</v>
+        <v>66097</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>85807</v>
+        <v>87367</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>96263</v>
+        <v>97196</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29260</v>
+        <v>28730</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37608</v>
+        <v>38666</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36895</v>
+        <v>37039</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>63523</v>
+        <v>63407</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>81142</v>
+        <v>81378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97759</v>
+        <v>97639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>91124</v>
+        <v>93854</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117796</v>
+        <v>117339</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>130685</v>
+        <v>130467</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4448</v>
+        <v>4464</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7496</v>
+        <v>6955</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14399</v>
+        <v>14882</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>31930</v>
+        <v>31958</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>34782</v>
+        <v>35771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35042</v>
+        <v>34658</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>38158</v>
+        <v>36699</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>44858</v>
+        <v>44727</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53538</v>
+        <v>53665</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16994</v>
+        <v>16937</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22628</v>
+        <v>22542</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29251</v>
+        <v>30235</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42896</v>
+        <v>43122</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49753</v>
+        <v>50630</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>50856</v>
+        <v>51120</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>58717</v>
+        <v>57862</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>68906</v>
+        <v>68530</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>76897</v>
+        <v>77197</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5748</v>
+        <v>5878</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1030</v>
+        <v>992</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>42738</v>
+        <v>43310</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>41660</v>
+        <v>41737</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>41684</v>
+        <v>41610</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>41541</v>
+        <v>42619</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>48948</v>
+        <v>49963</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>42911</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8797</v>
+        <v>8929</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18155</v>
+        <v>18738</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9987</v>
+        <v>9926</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>55025</v>
+        <v>55055</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>60716</v>
+        <v>60109</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>57302</v>
+        <v>57863</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>65629</v>
+        <v>67143</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>74966</v>
+        <v>76710</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>68181</v>
+        <v>67718</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14451</v>
+        <v>14125</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>23208</v>
+        <v>24137</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>13911</v>
+        <v>14490</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>85352</v>
+        <v>84939</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>106039</v>
+        <v>105646</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>82719</v>
+        <v>82523</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>100719</v>
+        <v>99288</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>134380</v>
+        <v>134710</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>100246</v>
+        <v>98875</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>32880</v>
+        <v>33178</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>46809</v>
+        <v>47424</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>33920</v>
+        <v>34444</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>102564</v>
+        <v>103356</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>132462</v>
+        <v>132344</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>105752</v>
+        <v>105756</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>138646</v>
+        <v>135038</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>176101</v>
+        <v>175969</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>136595</v>
+        <v>136985</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17988</v>
+        <v>17843</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19609</v>
+        <v>20455</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>33024</v>
+        <v>32543</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>101753</v>
+        <v>102221</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>127907</v>
+        <v>129607</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>121653</v>
+        <v>119721</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>119212</v>
+        <v>119710</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>151158</v>
+        <v>149707</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>157956</v>
+        <v>154679</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38142</v>
+        <v>38672</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>41103</v>
+        <v>41482</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>56276</v>
+        <v>57302</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>118944</v>
+        <v>120247</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>156940</v>
+        <v>158940</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>147249</v>
+        <v>146527</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>158787</v>
+        <v>159878</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>196210</v>
+        <v>196966</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>199917</v>
+        <v>198879</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>144822</v>
+        <v>145464</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>561459</v>
+        <v>565324</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>745818</v>
+        <v>752908</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>718557</v>
+        <v>713882</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>194046</v>
+        <v>193354</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>622053</v>
+        <v>620762</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>841352</v>
+        <v>844870</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>809478</v>
+        <v>808079</v>
       </c>
     </row>
     <row r="40">
